--- a/depurar/Proyecto.xlsx
+++ b/depurar/Proyecto.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mydrive.mdlz.com/personal/ruben_rueda_mdlz_com/Documents/Documents/Personal/GGeneral/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mydrive.mdlz.com/personal/ruben_rueda_mdlz_com/Documents/Documents/Personal/GGeneral/depurar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{2C8C2CDB-3D28-4451-8848-2592D55304E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1E7E546-C06A-4167-917F-27F535485DB5}"/>
+  <xr:revisionPtr revIDLastSave="281" documentId="8_{2C8C2CDB-3D28-4451-8848-2592D55304E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6093CFE2-1095-46C6-B232-07BCA0940E0F}"/>
   <bookViews>
-    <workbookView xWindow="-51360" yWindow="960" windowWidth="28800" windowHeight="15345" xr2:uid="{503A010A-3C7F-4AAA-806D-9A71AE12E7F1}"/>
+    <workbookView xWindow="31290" yWindow="210" windowWidth="21600" windowHeight="20985" activeTab="1" xr2:uid="{503A010A-3C7F-4AAA-806D-9A71AE12E7F1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Pendientes" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Descripción de Archivos" sheetId="2" r:id="rId3"/>
+    <sheet name="IA" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="309">
   <si>
     <t>Tabla de Modificaciones y Hoja de Ruta</t>
   </si>
@@ -168,15 +171,6 @@
   </si>
   <si>
     <t>index.html, style.css (para la UI del árbol)</t>
-  </si>
-  <si>
-    <t>... no construir en terrenos (inicial)</t>
-  </si>
-  <si>
-    <t>unit_Actions.js (o structure_Actions.js), constants.js</t>
-  </si>
-  <si>
-    <t>- JS: Habilidad "CONSTRUIR_TERRENO" (ej. camino, granja) ligada a una tecnología (ej. "CONSTRUCCION_BASICA").&lt;br&gt;- JS: Al principio, esta tecnología no está investigada, por lo que no se pueden construir estructuras en hexágonos vacíos.</t>
   </si>
   <si>
     <t>B3</t>
@@ -679,13 +673,3056 @@
   </si>
   <si>
     <t>Estatus</t>
+  </si>
+  <si>
+    <t>Descripción de Archivos y Relaciones:</t>
+  </si>
+  <si>
+    <t>1. index.html</t>
+  </si>
+  <si>
+    <r>
+      <t>Propósito</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Es el archivo principal de tu aplicación web. Define la estructura básica de la página (el esqueleto HTML), incluye los estilos CSS y carga todos los scripts JavaScript necesarios para que el juego funcione. Contiene los elementos DOM (botones, divs para el tablero, modales, etc.) que serán manipulados por JavaScript.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Relaciones</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Carga </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>style.css</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Carga secuencialmente todos los archivos </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. El orden de carga es importante, especialmente para dependencias (ej. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>domElements.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> antes que los que lo usan).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>main.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> suele ser el último script en cargarse o el que inicia la lógica principal después de que el DOM esté listo.</t>
+    </r>
+  </si>
+  <si>
+    <t>2. style.css</t>
+  </si>
+  <si>
+    <r>
+      <t>Propósito</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Contiene todas las reglas de estilo (CSS) que definen la apariencia visual del juego: colores, fuentes, tamaños, posicionamiento de elementos, diseño de los hexágonos, unidades, menús, modales, etc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Aplicado por el navegador al </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>index.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> y sus elementos.</t>
+    </r>
+  </si>
+  <si>
+    <t>3. constants.js</t>
+  </si>
+  <si>
+    <r>
+      <t>Propósito</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Almacena valores constantes que se usan en múltiples partes del juego y que no cambian durante la ejecución. Ejemplos: tipos de unidades y sus estadísticas base, tipos de terreno, costos de construcción, tamaños del tablero por defecto, datos de tecnologías, etc. Esto ayuda a centralizar la configuración y facilita los ajustes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Es utilizado por casi todos los demás módulos JS que necesitan acceder a estos datos base (ej. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>boardManager.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> para tamaños de hexágonos, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>unit_Actions.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> para stats de unidades, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>aiLogic.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> para evaluar unidades, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>gameFlow.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> para reglas).</t>
+    </r>
+  </si>
+  <si>
+    <t>4. state.js</t>
+  </si>
+  <si>
+    <r>
+      <t>Propósito</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Contiene el estado dinámico y actual del juego. Aquí se guarda toda la información que cambia durante una partida: quién es el jugador actual, el turno actual, la disposición de las unidades en el tablero, los recursos de cada jugador, las tecnologías investigadas, el estado del mapa de campaña, etc. Es el "corazón" de los datos en tiempo real del juego.</t>
+    </r>
+  </si>
+  <si>
+    <t>Es leído y modificado por la mayoría de los módulos de lógica del juego:</t>
+  </si>
+  <si>
+    <r>
+      <t>gameFlow.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (para saber de quién es el turno, actualizar fases).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>unit_Actions.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (para actualizar la posición, salud, experiencia de las unidades).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>boardManager.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (para saber qué unidad o estructura hay en un hexágono).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>aiLogic.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (para tomar decisiones basadas en el estado actual).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>uiUpdates.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (para reflejar el estado en la interfaz).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>saveLoad.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (para guardar y cargar este estado).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>campaignManager.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (para el estado de la campaña).</t>
+    </r>
+  </si>
+  <si>
+    <t>5. domElements.js</t>
+  </si>
+  <si>
+    <r>
+      <t>Propósito</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Su función principal es obtener y almacenar referencias a los elementos del DOM (definidos en </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>index.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) en variables JavaScript. Esto evita tener que hacer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>document.getElementById()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> repetidamente en otros archivos y centraliza la gestión de estas referencias. También puede contener variables globales relacionadas con el estado del DOM, como las de paneo que discutimos.</t>
+    </r>
+  </si>
+  <si>
+    <t>Esencialmente, proporciona "accesos directos" a los elementos HTML para otros scripts.</t>
+  </si>
+  <si>
+    <r>
+      <t>Utilizado por </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>uiUpdates.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>modalLogic.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>main.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>boardManager.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (para el </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>gameBoard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>), y cualquier otro script que necesite manipular directamente el DOM.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Debe cargarse muy temprano en </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>index.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> para que las variables estén disponibles.</t>
+    </r>
+  </si>
+  <si>
+    <t>6. utils.js</t>
+  </si>
+  <si>
+    <r>
+      <t>Propósito</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Contiene funciones de utilidad genéricas que pueden ser reutilizadas en diferentes partes del código. Ejemplos: cálculo de distancia entre hexágonos, generación de IDs únicos, funciones matemáticas comunes, formateo de texto, etc. Son funciones que no pertenecen a una lógica de juego específica pero ayudan a mantener otros archivos más limpios.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Utilizado por varios módulos que necesitan estas funciones auxiliares (ej. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>boardManager.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> para </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>hexDistance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>unit_Actions.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <t>7. uiUpdates.js</t>
+  </si>
+  <si>
+    <r>
+      <t>Propósito</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Responsable de actualizar la interfaz de usuario (UI) para reflejar los cambios en el </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>gameState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Esto incluye mostrar/ocultar elementos, actualizar texto (recursos, información de unidades), cambiar estilos dinámicamente, resaltar hexágonos, etc. Separa la lógica de presentación de la lógica del juego.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Lee de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>state.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> y </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>constants.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Utiliza variables de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>domElements.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> para acceder a los elementos HTML a modificar.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Es llamado por </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>gameFlow.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>unit_Actions.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>main.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>modalLogic.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>campaignManager.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> cuando necesitan que la UI se actualice.</t>
+    </r>
+  </si>
+  <si>
+    <t>8. boardManager.js</t>
+  </si>
+  <si>
+    <r>
+      <t>Propósito</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Gestiona todo lo relacionado con el tablero de juego hexagonal. Esto incluye:</t>
+    </r>
+  </si>
+  <si>
+    <t>Crear la representación visual del tablero (los hexágonos DOM).</t>
+  </si>
+  <si>
+    <r>
+      <t>Almacenar la información lógica de cada hexágono (terreno, dueño, estructura, unidad presente) en una estructura de datos (probablemente un array 2D que actualiza </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>state.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> o tiene su propia copia sincronizada).</t>
+    </r>
+  </si>
+  <si>
+    <t>Manejar la lógica de renderizado del tablero y sus elementos.</t>
+  </si>
+  <si>
+    <t>Funciones para obtener información sobre hexágonos (ej. vecinos).</t>
+  </si>
+  <si>
+    <t>Manejar la lógica de paneo y zoom del tablero.</t>
+  </si>
+  <si>
+    <r>
+      <t>Utiliza </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>constants.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (para dimensiones, tipos de terreno).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Puede leer/escribir en </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>state.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (para unidades en hexágonos, dueños).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Utiliza </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>domElements.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (para el elemento </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>gameBoard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Es llamado por </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>gameFlow.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> o </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>main.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> para inicializar el tablero.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Es consultado por </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>unit_Actions.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> y </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>aiLogic.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> para información del tablero.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Utiliza </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>utils.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> para funciones como </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>hexDistance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>9. unit_Actions.js</t>
+  </si>
+  <si>
+    <r>
+      <t>Propósito</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Maneja todas las acciones que una unidad puede realizar: moverse, atacar, construir (si son unidades constructoras), fusionarse, ganar experiencia, etc. Contiene la lógica para validar estas acciones y actualizar el </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>gameState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> en consecuencia.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Modifica </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>state.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (posición de unidades, salud, XP, recursos del jugador si una acción cuesta algo).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Lee de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>constants.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (stats de unidades, rangos de movimiento/ataque).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Interactúa con </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>boardManager.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (para validar movimientos, obtener información de hexágonos objetivo).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Llama a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>uiUpdates.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> para reflejar los cambios visuales de las unidades.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Utiliza </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>utils.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> para cálculos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Es llamado por </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>gameFlow.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (cuando el jugador realiza una acción) o </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>aiLogic.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (cuando la IA decide una acción).</t>
+    </r>
+  </si>
+  <si>
+    <t>10. modalLogic.js</t>
+  </si>
+  <si>
+    <r>
+      <t>Propósito</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Gestiona la lógica de los modales (ventanas emergentes) del juego: mostrar/ocultar modales, manejar la interacción dentro de ellos (ej. seleccionar regimientos en el modal de creación de división, seleccionar estructura en el modal de construcción), y procesar los datos ingresados en ellos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Utiliza </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>domElements.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> para acceder a los elementos HTML de los modales.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Llama a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>uiUpdates.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> para actualizar el contenido de los modales.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Puede leer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>state.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> y </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>constants.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> para poblar modales con información relevante (ej. regimientos disponibles).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Es llamado desde </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>main.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> o </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>gameFlow.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> cuando se necesita abrir un modal (ej. al hacer clic en "Crear División").</t>
+    </r>
+  </si>
+  <si>
+    <t>11. aiLogic.js</t>
+  </si>
+  <si>
+    <r>
+      <t>Propósito</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Contiene la inteligencia artificial (IA) para los oponentes controlados por la computadora. Decide qué acciones realizarán las unidades de la IA, qué construir, qué investigar, etc., durante su turno.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Lee extensivamente de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>state.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> para entender la situación del juego.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Utiliza </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>constants.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> para conocer las capacidades de sus unidades y las del jugador.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Interactúa con </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>boardManager.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> para analizar el tablero.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Llama a funciones de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>unit_Actions.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> para ejecutar las acciones decididas.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Puede necesitar funciones de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>utils.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Es llamado por </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>gameFlow.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> cuando es el turno de la IA.</t>
+    </r>
+  </si>
+  <si>
+    <t>12. gameFlow.js</t>
+  </si>
+  <si>
+    <r>
+      <t>Propósito</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Controla el flujo general de una partida táctica. Gestiona los turnos, las fases del juego (despliegue, juego, fin de partida), comprueba las condiciones de victoria/derrota, y coordina las acciones del jugador y de la IA.</t>
+    </r>
+  </si>
+  <si>
+    <t>Es central para la lógica de la partida.</t>
+  </si>
+  <si>
+    <r>
+      <t>Modifica y lee </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>state.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (jugador actual, fase actual, número de turno).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Llama a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>boardManager.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> para configurar el tablero al inicio.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Llama a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>unit_Actions.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> cuando el jugador o la IA realizan una acción.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Llama a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>aiLogic.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> para el turno de la IA.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Llama a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>uiUpdates.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> para actualizar la UI en cambios de turno/fase.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Interactúa con </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>saveLoad.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> para iniciar partidas guardadas.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Es llamado por </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>main.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (para iniciar una nueva partida) o </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>campaignManager.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (para iniciar una batalla de escenario).</t>
+    </r>
+  </si>
+  <si>
+    <t>13. saveLoad.js</t>
+  </si>
+  <si>
+    <r>
+      <t>Propósito</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Maneja la funcionalidad de guardar y cargar el estado del juego. Esto implica serializar el </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>gameState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (y posiblemente otros datos relevantes como el estado del </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>board</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) a un formato (JSON) y guardarlo (ej. en </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>localStorage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> o permitir descargarlo como archivo), y viceversa para cargar.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Interactúa directamente con </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>state.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> para obtener los datos a guardar y para restaurar los datos al cargar.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Es llamado por </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>gameFlow.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> o </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>main.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> o </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>campaignManager.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> cuando el jugador quiere guardar/cargar.</t>
+    </r>
+  </si>
+  <si>
+    <t>14. campaignManager.js</t>
+  </si>
+  <si>
+    <r>
+      <t>Propósito</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Gestiona la lógica del modo campaña. Esto incluye:</t>
+    </r>
+  </si>
+  <si>
+    <t>Mostrar el mapa de campaña.</t>
+  </si>
+  <si>
+    <t>Manejar la progresión a través de diferentes escenarios/batallas.</t>
+  </si>
+  <si>
+    <r>
+      <t>Cargar datos de escenarios (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>worldMapData.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, archivos de escenario).</t>
+    </r>
+  </si>
+  <si>
+    <t>Mantener el estado persistente entre batallas de una campaña (unidades supervivientes, oro, tecnologías).</t>
+  </si>
+  <si>
+    <r>
+      <t>Iniciar batallas tácticas (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>gameFlow.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) con la configuración del escenario.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Utiliza </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>worldMapData.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> y archivos de escenarios (JSON) para la estructura de la campaña.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Utiliza </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>saveLoad.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> para guardar/cargar el progreso de la campaña.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Modifica/lee </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>state.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> para el estado global de la campaña y para pasar información a las batallas tácticas.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Llama a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>boardManager.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> y </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>gameFlow.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> para iniciar las batallas de los escenarios.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Llama a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>uiUpdates.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> para actualizar la UI del mapa de campaña o los briefings.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Es llamado desde </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>main.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> cuando el jugador selecciona "Comenzar Campaña".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>15. worldMapData.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (y otros archivos de datos de mapas/escenarios como </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>tactical_britain_coast_map.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>britain_defense_scenario.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Propósito</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Contienen datos específicos para los mapas (ya sea el mapa mundial de campaña o los mapas tácticos de batalla) y la configuración de los escenarios (unidades iniciales, objetivos, etc.). Suelen ser objetos JavaScript o JSON.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Leídos principalmente por </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>campaignManager.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (para datos de campaña y escenarios) y </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>boardManager.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (para configurar mapas tácticos específicos para escenarios).</t>
+    </r>
+  </si>
+  <si>
+    <t>16. main.js</t>
+  </si>
+  <si>
+    <r>
+      <t>Propósito</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Es el punto de entrada principal de la aplicación o, más específicamente, de la lógica del juego una vez que el DOM está listo. Inicializa los diferentes módulos, configura los event listeners globales de la UI (botones de menú principal, inicio de partida), y puede orquestar el inicio de una nueva partida (escaramuza o campaña).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Suele llamar a funciones de inicialización de otros módulos (ej. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>initializeDomElements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>domElements.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>addModalEventListeners</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>modalLogic.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Configura listeners para botones que luego llaman a funciones en </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>gameFlow.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> o </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>campaignManager.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Puede interactuar con </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>uiUpdates.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> para mostrar/ocultar pantallas iniciales.</t>
+    </r>
+  </si>
+  <si>
+    <t>Espero que esta descripción detallada y el diagrama te den una buena perspectiva general de cómo están organizados tus archivos y cómo interactúan. ¡Es una buena base para seguir construyendo!</t>
+  </si>
+  <si>
+    <t>Es funcional aunque no tan bien como quisiera, sirve para esta fase.</t>
+  </si>
+  <si>
+    <t>Hecho</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
+  </si>
+  <si>
+    <t>1. ¿Estoy en Crisis de Comida?</t>
+  </si>
+  <si>
+    <r>
+      <t>Condición:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>playerResources.comida &lt;= umbral_critico_comida</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (ej. 0 o un valor muy bajo).</t>
+    </r>
+  </si>
+  <si>
+    <t>Si tengo constructores y tecnología para Granjas: Priorizar construcción de Granjas en hexágonos válidos y seguros.</t>
+  </si>
+  <si>
+    <r>
+      <t>2. ¿Debo Investigar Tecnología?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (Ya tenemos una lógica básica para esto)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Condición:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Hay tecnologías disponibles y puedo pagarlas.</t>
+    </r>
+  </si>
+  <si>
+    <t>Acción:</t>
+  </si>
+  <si>
+    <r>
+      <t>Evaluar tecnologías disponibles (función </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>getAvailableTechnologies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <t>Priorizar:</t>
+  </si>
+  <si>
+    <t>a) Tecnologías que solucionen una debilidad crítica (ej. si estoy siendo diezmado por unidades que no puedo contrarrestar).</t>
+  </si>
+  <si>
+    <t>b) Tecnologías económicas si los recursos son un problema (ej. más comida, más oro).</t>
+  </si>
+  <si>
+    <t>c) Tecnologías que desbloqueen unidades/habilidades que necesito para mi estrategia actual.</t>
+  </si>
+  <si>
+    <t>d) Tecnologías que sean prerrequisito para un objetivo a largo plazo.</t>
+  </si>
+  <si>
+    <t>e) (Simple) La más barata o la que tenga un "score" de utilidad más alto.</t>
+  </si>
+  <si>
+    <t>Si se elige una, investigarla. (Esta acción podría consumir recursos que afecten la producción de unidades este turno).</t>
+  </si>
+  <si>
+    <t>3. ¿Debo Producir Unidades?</t>
+  </si>
+  <si>
+    <t>Evaluar la fuerza relativa del ejército (comparado con el jugador si hay información).</t>
+  </si>
+  <si>
+    <t>Evaluar necesidades (¿necesito más exploradores, defensores, atacantes, contra-unidades?).</t>
+  </si>
+  <si>
+    <t>Si es viable, producir la unidad más necesaria/útil que pueda pagar.</t>
+  </si>
+  <si>
+    <r>
+      <t>Consideraciones:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> La producción debe equilibrarse con la investigación y la economía.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(Para cada </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>unit</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> de la IA que no haya actuado completamente)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Condición:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Salud muy baja, superada en número, atacada por unidad superior.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Condición:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Enemigo visible en rango, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>predictCombatOutcome</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> indica alta probabilidad de destrucción del enemigo con bajas propias mínimas o aceptables.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Acción:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Atacar.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Condición:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Similar a 2.1, pero requiere movimiento. Evaluar si el movimiento vale la pena.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Acción:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Mover y Atacar.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Condición:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="DM Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>unit.currentHealth &lt; umbral_para_fusion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, hay unidad amiga cercana, la fusión cumple criterios (espacio, tipo compatible si aplica, la otra unidad no está a tope de salud/fuerza).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Acción:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Moverse y fusionarse.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Condición:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Otra unidad IA está cerca de un enemigo, y esta unidad puede moverse para atacar al mismo enemigo en el mismo turno o el siguiente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Acción:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Moverse a posición de ataque coordinado. (Esto es avanzado, requiere planificación entre unidades).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Acción:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Moverse para capturar/controlar ese hexágono. Si la unidad es constructora y el nodo necesita una estructura (ej. mina), y tengo la tecnología/recursos, considerar construirla.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Acción:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Moverse para capturar.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Acción:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Moverse a suministro.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Condición:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> No hay acciones anteriores válidas o deseables.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Acción:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> La unidad no se mueve. Si está en un hexágono defensivo, podría "fortificarse" (si tienes esa mecánica, podría darle un bonus de defensa el siguiente turno).</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Si tengo unidades que pueden llegar a un recurso de Granja y ganar a las unidades enemigas ir hacia el. </t>
+  </si>
+  <si>
+    <t>Si no puedo construir Granjas, y no puedo llegar a Granjas, y la situación es desesperada, perderé en todas mis unidades por no tener comida, considerar disolver las unidades más pequeñas, menos estratégica que esté causando el déficit, y de todas formas perdería, para mantener a las mejor posicionadas o más grandes.</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Continuar.</t>
+  </si>
+  <si>
+    <r>
+      <t>Condición:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Tengo unidades enemigas cerca de mi ciudad que podrían tomarla en el siguiente turno.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Condición:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Tengo ciudades/fortalezas con capacidad de reclutamiento, tecnología para unidades, y recursos (oro para crearlas).</t>
+    </r>
+  </si>
+  <si>
+    <t>necesito defensores</t>
+  </si>
+  <si>
+    <r>
+      <t>Consideraciones:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> La producción debe hacerse en la ciudad/fortaleza más cercana a posiciones estratégicas o el enemigo.</t>
+    </r>
+  </si>
+  <si>
+    <t>B. DECISIONES A NIVEL DE IMPERIO (Se ejecutan una vez al inicio del turno de la IA)</t>
+  </si>
+  <si>
+    <t>A. DECISIONES A NIVEL DE DESPLIEGUE (Se ejecutan en el primer turno, despliegue de unidades IA)</t>
+  </si>
+  <si>
+    <t>1 La casilla del jugador está vacía</t>
+  </si>
+  <si>
+    <t>Poner unidad en la casilla del jugador para ganar la partida.</t>
+  </si>
+  <si>
+    <t>2. ¿Hay casillas con oro disponible?</t>
+  </si>
+  <si>
+    <t>Poner unidad en la casilla Disponible</t>
+  </si>
+  <si>
+    <t>3. ¿Puedo tener ventaja alrededor de casillas con oro disponible?</t>
+  </si>
+  <si>
+    <t>Poner suficientes unidad/es en la casilla Disponible para vencer</t>
+  </si>
+  <si>
+    <t>REPETIR LOS PASOS 2 Y 3 PARA COMIDA, PIEDRA, MADERA.</t>
+  </si>
+  <si>
+    <t>C. DECISIONES A NIVEL DE UNIDAD (Para cada unidad IA activa, en orden de prioridad)</t>
+  </si>
+  <si>
+    <t>No mover para evitar que pueda ser ocupada la casilla.</t>
+  </si>
+  <si>
+    <t>atacar si tiene unidades a distancia.</t>
+  </si>
+  <si>
+    <t>Atacar</t>
+  </si>
+  <si>
+    <r>
+      <t>1 Condición:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Tengo unidades enemigas cerca de mi ciudad que podrían tomarla en el siguiente turno.</t>
+    </r>
+  </si>
+  <si>
+    <t>1.1 La unidad está en la capital:</t>
+  </si>
+  <si>
+    <t>2 ¿Esta unidad está en grave peligro y puede retirarse a un lugar seguro?</t>
+  </si>
+  <si>
+    <t>Intentar moverse a un hexágono seguro y suministrado. (Ya tienes handlePostBattleRetreat, podríamos adaptarlo).</t>
+  </si>
+  <si>
+    <t>3. ACCIÓN OFENSIVA OPORTUNISTA:</t>
+  </si>
+  <si>
+    <t>3.1. ¿Puedo destruir una unidad enemiga debilitada con un ataque favorable?</t>
+  </si>
+  <si>
+    <t>3.2. ¿Puedo moverme para destruir una unidad enemiga debilitada con un ataque favorable?</t>
+  </si>
+  <si>
+    <t>1.2 La unidad no está en la capital pero en el camino de la unidad enemiga cercana a la capital:</t>
+  </si>
+  <si>
+    <t>4. ACCIÓN DE CONSOLIDACIÓN / APOYO:</t>
+  </si>
+  <si>
+    <r>
+      <t>4.1. ¿Estoy dañado y cerca de una unidad amiga compatible para fusionarme (y la fusión es beneficiosa)?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (Tu Punto 3 y 6)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.2. ¿Puedo moverme para apoyar un ataque de otra unidad IA (ataque coordinado)?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (Tu Punto 6)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5. ACCIÓN DE EXPANSIÓN Y CONTROL DE RECURSOS:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (Tu Punto 4)</t>
+    </r>
+  </si>
+  <si>
+    <t>5.1. ¿Hay un nodo de recurso valioso y sin dueño (o del enemigo) al alcance o cerca?</t>
+  </si>
+  <si>
+    <t>5.2. ¿Puedo expandir mi territorio capturando hexágonos neutrales/enemigos adyacentes?</t>
+  </si>
+  <si>
+    <r>
+      <t>6. ACCIÓN DE LÍNEAS DE SUMINISTRO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (Tu Punto 2 y 5)</t>
+    </r>
+  </si>
+  <si>
+    <t>6.1. ¿Estoy fuera de suministro y puedo moverme a una casilla suministrada?</t>
+  </si>
+  <si>
+    <t>6.2. (Avanzado) ¿Puedo moverme para cortar una línea de suministro enemiga (capturar un camino clave o un hexágono que aísle unidades enemigas)?</t>
+  </si>
+  <si>
+    <r>
+      <t>7. MOVIMIENTO GENERAL (Fallback):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A1C1E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (Tu Punto 7)</t>
+    </r>
+  </si>
+  <si>
+    <t>7.1. Moverse hacia la unidad enemiga visible más cercana (si no se aplicó ninguna acción anterior).</t>
+  </si>
+  <si>
+    <t>7.2. Si no hay enemigos visibles, moverse hacia la capital enemiga.</t>
+  </si>
+  <si>
+    <t>7.3. (Opcional) Explorar áreas no visibles del mapa.</t>
+  </si>
+  <si>
+    <t>8. ESPERAR/FORTIFICAR:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,13 +3746,71 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1A1C1E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1A1C1E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF1A1C1E"/>
+      <name val="DM Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1A1C1E"/>
+      <name val="DM Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF1A1C1E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF1A1C1E"/>
+      <name val="DM Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -730,7 +3825,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -748,6 +3843,67 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -763,6 +3919,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1062,10 +4222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4AD579-29C5-481A-A88C-43910D3A0246}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection sqref="A1:E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,6 +4233,7 @@
     <col min="1" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="108.85546875" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1100,7 +4261,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1113,8 +4274,8 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1132,9 +4293,12 @@
       <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="G5" s="2" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1152,9 +4316,12 @@
       <c r="F6" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="G6" s="2" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1172,9 +4339,12 @@
       <c r="F7" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="G7" s="2" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="17" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1191,6 +4361,9 @@
       </c>
       <c r="F8" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1211,6 +4384,9 @@
       </c>
       <c r="F9" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1242,9 +4418,12 @@
       <c r="F11" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="G11" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1263,399 +4442,385 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
+    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>48</v>
       </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
         <v>52</v>
       </c>
+    </row>
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="D15" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>80</v>
+      <c r="A21" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="2" t="s">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="2" t="s">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F26" s="2" t="s">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1666,6 +4831,2034 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D813F56C-DB93-4902-8594-C34078D5465E}">
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E39" sqref="A1:E39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="50.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2B7730-C208-4FD3-A791-0B5AEE1442D4}">
+  <dimension ref="A1:A173"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="255.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+    </row>
+    <row r="5" spans="1:1" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+    </row>
+    <row r="21" spans="1:1" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+    </row>
+    <row r="28" spans="1:1" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+    </row>
+    <row r="43" spans="1:1" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="10"/>
+    </row>
+    <row r="51" spans="1:1" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="12"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="10"/>
+    </row>
+    <row r="58" spans="1:1" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="12"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="13"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="10"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="12"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="12"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="13"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="10"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="12"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="13"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="10"/>
+    </row>
+    <row r="97" spans="1:1" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A97" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="12"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="13"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="10"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="12"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="13"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="10"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="12"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="13"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="10"/>
+    </row>
+    <row r="133" spans="1:1" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A133" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="12"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="13"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="10"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="12"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="12"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="13"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="10"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="12"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="13"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="10"/>
+    </row>
+    <row r="166" spans="1:1" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A166" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="12"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC8A7C3-2D3A-4401-8FFE-39891E9F49C3}">
+  <dimension ref="A1:C150"/>
+  <sheetViews>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="122.85546875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="119" style="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="20"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" s="20"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="25" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="B9" s="23"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="25" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="B15" s="23"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="25" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="B21" s="23"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="23"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="B23" s="23"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="B25" s="20"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="B26" s="21"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>267</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="27" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="C30" s="27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" t="s">
+        <v>268</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="B34" s="21"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="23"/>
+      <c r="B35" t="s">
+        <v>267</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="23"/>
+      <c r="C37" s="21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="23"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="23"/>
+      <c r="C39" s="23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="23"/>
+      <c r="C40" s="23" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="B45" s="21"/>
+      <c r="C45" s="25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="B46" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="23"/>
+      <c r="B47" t="s">
+        <v>267</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="23"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="23"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="23"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="21" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="23"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="23"/>
+      <c r="B53" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="23"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="B55" s="23"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="21"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="21"/>
+      <c r="B57"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="21"/>
+      <c r="B58"/>
+      <c r="C58" s="23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="21"/>
+      <c r="B59"/>
+      <c r="C59" s="23" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="21"/>
+      <c r="B60"/>
+      <c r="C60" s="23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="21"/>
+      <c r="B61"/>
+      <c r="C61" s="21" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="21"/>
+      <c r="B62"/>
+      <c r="C62" s="21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="21"/>
+      <c r="B63"/>
+      <c r="C63" s="25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="21"/>
+      <c r="B64" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="21"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="B66"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="B67"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="24"/>
+      <c r="B68"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="B69"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="B70"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>267</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="21"/>
+      <c r="B72"/>
+      <c r="C72" s="25" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="21"/>
+      <c r="B73"/>
+      <c r="C73" s="25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="21"/>
+      <c r="B74"/>
+      <c r="C74" s="25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="21"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="B77"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="21"/>
+      <c r="B78" t="s">
+        <v>267</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="21"/>
+      <c r="B79"/>
+      <c r="C79" s="25" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="21"/>
+      <c r="B80"/>
+      <c r="C80" s="25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="21"/>
+      <c r="B81" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="21"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="B83"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="B84" t="s">
+        <v>267</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B85"/>
+      <c r="C85" s="25" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="23"/>
+      <c r="B86" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="C86" s="26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="B87" s="23"/>
+      <c r="C87" s="25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="23"/>
+      <c r="B88" s="21"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="B89" s="23"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="23"/>
+      <c r="B90" s="21"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="B91" s="23"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="B92" s="21"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="B93" s="21"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="23"/>
+      <c r="B94" s="21"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B95" s="23"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="B96" s="21"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="21"/>
+      <c r="B97" s="21"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="B98" s="21"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="23"/>
+      <c r="B99" s="23"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="B100" s="21"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="23"/>
+      <c r="B101" s="23"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="B102" s="21"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="B103" s="21"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="B104" s="21"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="23"/>
+      <c r="B105" s="23"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="B106" s="21"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="B107" s="21"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="23"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="21" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="23"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="21" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="21" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="23"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="B118" s="21"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="23"/>
+      <c r="B119" s="23"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="B120" s="21"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="23"/>
+      <c r="B121" s="23"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="B122" s="21"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="B123" s="21"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="21"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="B125" s="23"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="23"/>
+      <c r="B126" s="21"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="B127" s="21"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="B128" s="21"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="B129" s="23"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="21"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="B131" s="23"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="23"/>
+      <c r="B132" s="21"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="B133" s="21"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="B134" s="23"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="21"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="21"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="23"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B138" s="21"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="23"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="21"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B141" s="21"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B142" s="21"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B143" s="23"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B144" s="21"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" s="21"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="21"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" s="21"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" s="23"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149" s="21"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B150" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{a9324442-4656-4fca-b26e-099b64ea741e}" enabled="1" method="Standard" siteId="{18a01ad8-9727-498a-a47d-17374c6fd9f7}" removed="0"/>
